--- a/Sleep tracker (template).xlsx
+++ b/Sleep tracker (template).xlsx
@@ -17,9 +17,9 @@
     <sheet name="n-day stdev" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Date">OFFSET(Michael!$A$2, 0, 0, Michael!$BC$4 - 2)</definedName>
-    <definedName name="_n_day">OFFSET(Michael!$AZ$2, 0, 0, Michael!$BC$4 - 2)</definedName>
-    <definedName name="_n_day_stdev">OFFSET(Michael!$BA$2, 0, 0, Michael!$BC$4 - 2)</definedName>
+    <definedName name="_Date">OFFSET(Michael!$A$2, 0, 0, Michael!$BC$4 - 1)</definedName>
+    <definedName name="_n_day">OFFSET(Michael!$AZ$2, 0, 0, Michael!$BC$4 - 1)</definedName>
+    <definedName name="_n_day_stdev">OFFSET(Michael!$BA$2, 0, 0, Michael!$BC$4 - 1)</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1" iterateCount="730"/>
 </workbook>
@@ -128,65 +128,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="0"/>
@@ -204,16 +146,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
     </dxf>
@@ -223,6 +155,16 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
@@ -300,7 +242,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -585,7 +526,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2920,6 +2860,9 @@
         <v>23</v>
       </c>
       <c r="AW1" s="1"/>
+      <c r="AX1" s="5">
+        <v>1</v>
+      </c>
       <c r="AY1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3016,11 +2959,11 @@
         <v>0.5</v>
       </c>
       <c r="AZ2" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY2, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ref="AZ2:AZ65" ca="1" si="0">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY2, 0, 0, -$BC$1)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="BA2" s="8" t="e">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY2, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ref="BA2:BA65" ca="1" si="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY2, 0, 0, -$BD$1)), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="BB2" s="3">
@@ -3045,15 +2988,15 @@
         <v>0</v>
       </c>
       <c r="AY3" s="5">
-        <f>(SUM(AN2:AW2)+SUM(B3:AM3))/2</f>
+        <f t="shared" ref="AY3:AY66" si="2">(SUM(AN2:AW2)+SUM(B3:AM3))/2</f>
         <v>0</v>
       </c>
       <c r="AZ3" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY3, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA3" s="8" t="e">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY3, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="BB3" s="3">
@@ -3110,7 +3053,7 @@
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="3">A3+1</f>
         <v>42872</v>
       </c>
       <c r="P4" s="1"/>
@@ -3133,23 +3076,23 @@
         <v>0</v>
       </c>
       <c r="AY4" s="5">
-        <f>(SUM(AN3:AW3)+SUM(B4:AM4))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ4" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY4, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA4" s="8" t="e">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY4, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="BB4" s="3">
         <v>-8</v>
       </c>
       <c r="BC4" s="1">
-        <f t="array" ref="BC4">MIN(IF(AX2:AX730=0, ROW(AX2:AX730)))</f>
-        <v>3</v>
+        <f>SUM(AX:AX)</f>
+        <v>2</v>
       </c>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
@@ -3201,7 +3144,7 @@
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42873</v>
       </c>
       <c r="R5" s="2"/>
@@ -3221,15 +3164,15 @@
         <v>0</v>
       </c>
       <c r="AY5" s="5">
-        <f>(SUM(AN4:AW4)+SUM(B5:AM5))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ5" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY5, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA5" s="8" t="e">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY5, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="BB5" s="3">
@@ -3285,7 +3228,7 @@
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42874</v>
       </c>
       <c r="H6" s="1"/>
@@ -3301,15 +3244,15 @@
         <v>0</v>
       </c>
       <c r="AY6" s="5">
-        <f>(SUM(AN5:AW5)+SUM(B6:AM6))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ6" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY6, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA6" s="8" t="e">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY6, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="BB6" s="3">
@@ -3366,7 +3309,7 @@
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42875</v>
       </c>
       <c r="O7" s="1"/>
@@ -3395,15 +3338,15 @@
         <v>0</v>
       </c>
       <c r="AY7" s="5">
-        <f>(SUM(AN6:AW6)+SUM(B7:AM7))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ7" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY7, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA7" s="8" t="e">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY7, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="BB7" s="3">
@@ -3466,7 +3409,7 @@
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42876</v>
       </c>
       <c r="R8" s="2"/>
@@ -3488,15 +3431,15 @@
         <v>0</v>
       </c>
       <c r="AY8" s="5">
-        <f>(SUM(AN7:AW7)+SUM(B8:AM8))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ8" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY8, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA8" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY8, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.1749635530559413</v>
       </c>
       <c r="BB8" s="3">
@@ -3559,7 +3502,7 @@
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42877</v>
       </c>
       <c r="R9" s="2"/>
@@ -3568,15 +3511,15 @@
         <v>0</v>
       </c>
       <c r="AY9" s="5">
-        <f>(SUM(AN8:AW8)+SUM(B9:AM9))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ9" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY9, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA9" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY9, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB9" s="3">
@@ -3585,7 +3528,7 @@
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42878</v>
       </c>
       <c r="R10" s="2"/>
@@ -3594,15 +3537,15 @@
         <v>0</v>
       </c>
       <c r="AY10" s="5">
-        <f>(SUM(AN9:AW9)+SUM(B10:AM10))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ10" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY10, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA10" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY10, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB10" s="3">
@@ -3611,7 +3554,7 @@
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42879</v>
       </c>
       <c r="R11" s="2"/>
@@ -3626,15 +3569,15 @@
         <v>0</v>
       </c>
       <c r="AY11" s="5">
-        <f>(SUM(AN10:AW10)+SUM(B11:AM11))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY11, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA11" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY11, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB11" s="3">
@@ -3643,7 +3586,7 @@
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42880</v>
       </c>
       <c r="R12" s="2"/>
@@ -3652,15 +3595,15 @@
         <v>0</v>
       </c>
       <c r="AY12" s="5">
-        <f>(SUM(AN11:AW11)+SUM(B12:AM12))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ12" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY12, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA12" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY12, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB12" s="3">
@@ -3670,7 +3613,7 @@
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42881</v>
       </c>
       <c r="R13" s="2"/>
@@ -3679,15 +3622,15 @@
         <v>0</v>
       </c>
       <c r="AY13" s="5">
-        <f>(SUM(AN12:AW12)+SUM(B13:AM13))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ13" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY13, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA13" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY13, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB13" s="3">
@@ -3696,7 +3639,7 @@
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42882</v>
       </c>
       <c r="R14" s="2"/>
@@ -3705,15 +3648,15 @@
         <v>0</v>
       </c>
       <c r="AY14" s="5">
-        <f>(SUM(AN13:AW13)+SUM(B14:AM14))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ14" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY14, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA14" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY14, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB14" s="3">
@@ -3722,7 +3665,7 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42883</v>
       </c>
       <c r="R15" s="2"/>
@@ -3731,15 +3674,15 @@
         <v>0</v>
       </c>
       <c r="AY15" s="5">
-        <f>(SUM(AN14:AW14)+SUM(B15:AM15))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ15" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY15, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA15" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY15, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB15" s="3">
@@ -3748,7 +3691,7 @@
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42884</v>
       </c>
       <c r="AX16" s="5">
@@ -3756,15 +3699,15 @@
         <v>0</v>
       </c>
       <c r="AY16" s="5">
-        <f>(SUM(AN15:AW15)+SUM(B16:AM16))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY16, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA16" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY16, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB16" s="3">
@@ -3773,7 +3716,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42885</v>
       </c>
       <c r="R17" s="2"/>
@@ -3782,15 +3725,15 @@
         <v>0</v>
       </c>
       <c r="AY17" s="5">
-        <f>(SUM(AN16:AW16)+SUM(B17:AM17))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ17" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY17, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA17" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY17, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB17" s="3">
@@ -3799,7 +3742,7 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42886</v>
       </c>
       <c r="R18" s="2"/>
@@ -3808,15 +3751,15 @@
         <v>0</v>
       </c>
       <c r="AY18" s="5">
-        <f>(SUM(AN17:AW17)+SUM(B18:AM18))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ18" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY18, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA18" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY18, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB18" s="3">
@@ -3825,7 +3768,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42887</v>
       </c>
       <c r="AX19" s="5">
@@ -3833,15 +3776,15 @@
         <v>0</v>
       </c>
       <c r="AY19" s="5">
-        <f>(SUM(AN18:AW18)+SUM(B19:AM19))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY19, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA19" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY19, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB19" s="3">
@@ -3850,7 +3793,7 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42888</v>
       </c>
       <c r="R20" s="2"/>
@@ -3859,15 +3802,15 @@
         <v>0</v>
       </c>
       <c r="AY20" s="5">
-        <f>(SUM(AN19:AW19)+SUM(B20:AM20))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ20" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY20, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA20" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY20, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB20" s="3">
@@ -3876,7 +3819,7 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42889</v>
       </c>
       <c r="R21" s="2"/>
@@ -3885,15 +3828,15 @@
         <v>0</v>
       </c>
       <c r="AY21" s="5">
-        <f>(SUM(AN20:AW20)+SUM(B21:AM21))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ21" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY21, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA21" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY21, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB21" s="3">
@@ -3902,7 +3845,7 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42890</v>
       </c>
       <c r="R22" s="2"/>
@@ -3911,15 +3854,15 @@
         <v>0</v>
       </c>
       <c r="AY22" s="5">
-        <f>(SUM(AN21:AW21)+SUM(B22:AM22))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ22" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY22, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA22" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY22, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB22" s="3">
@@ -3928,7 +3871,7 @@
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42891</v>
       </c>
       <c r="R23" s="2"/>
@@ -3937,15 +3880,15 @@
         <v>0</v>
       </c>
       <c r="AY23" s="5">
-        <f>(SUM(AN22:AW22)+SUM(B23:AM23))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY23, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA23" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY23, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB23" s="3">
@@ -3954,7 +3897,7 @@
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42892</v>
       </c>
       <c r="R24" s="2"/>
@@ -3963,15 +3906,15 @@
         <v>0</v>
       </c>
       <c r="AY24" s="5">
-        <f>(SUM(AN23:AW23)+SUM(B24:AM24))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ24" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY24, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA24" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY24, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB24" s="3">
@@ -3980,7 +3923,7 @@
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42893</v>
       </c>
       <c r="AX25" s="5">
@@ -3988,15 +3931,15 @@
         <v>0</v>
       </c>
       <c r="AY25" s="5">
-        <f>(SUM(AN24:AW24)+SUM(B25:AM25))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ25" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY25, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA25" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY25, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB25" s="3">
@@ -4005,7 +3948,7 @@
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42894</v>
       </c>
       <c r="AX26" s="5">
@@ -4013,15 +3956,15 @@
         <v>0</v>
       </c>
       <c r="AY26" s="5">
-        <f>(SUM(AN25:AW25)+SUM(B26:AM26))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ26" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY26, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA26" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY26, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB26" s="3">
@@ -4030,7 +3973,7 @@
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42895</v>
       </c>
       <c r="R27" s="2"/>
@@ -4039,15 +3982,15 @@
         <v>0</v>
       </c>
       <c r="AY27" s="5">
-        <f>(SUM(AN26:AW26)+SUM(B27:AM27))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY27, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA27" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY27, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB27" s="3">
@@ -4056,7 +3999,7 @@
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42896</v>
       </c>
       <c r="R28" s="2"/>
@@ -4065,15 +4008,15 @@
         <v>0</v>
       </c>
       <c r="AY28" s="5">
-        <f>(SUM(AN27:AW27)+SUM(B28:AM28))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ28" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY28, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA28" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY28, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB28" s="3">
@@ -4082,7 +4025,7 @@
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42897</v>
       </c>
       <c r="R29" s="2"/>
@@ -4091,15 +4034,15 @@
         <v>0</v>
       </c>
       <c r="AY29" s="5">
-        <f>(SUM(AN28:AW28)+SUM(B29:AM29))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ29" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY29, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA29" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY29, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB29" s="3">
@@ -4108,7 +4051,7 @@
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42898</v>
       </c>
       <c r="R30" s="2"/>
@@ -4117,15 +4060,15 @@
         <v>0</v>
       </c>
       <c r="AY30" s="5">
-        <f>(SUM(AN29:AW29)+SUM(B30:AM30))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ30" s="8" t="e">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY30, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="BA30" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY30, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB30" s="3">
@@ -4134,7 +4077,7 @@
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42899</v>
       </c>
       <c r="R31" s="2"/>
@@ -4143,15 +4086,15 @@
         <v>0</v>
       </c>
       <c r="AY31" s="5">
-        <f>(SUM(AN30:AW30)+SUM(B31:AM31))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ31" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY31, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="BA31" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY31, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB31" s="3">
@@ -4160,7 +4103,7 @@
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42900</v>
       </c>
       <c r="AX32" s="5">
@@ -4168,15 +4111,15 @@
         <v>0</v>
       </c>
       <c r="AY32" s="5">
-        <f>(SUM(AN31:AW31)+SUM(B32:AM32))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ32" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY32, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA32" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY32, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB32" s="3">
@@ -4185,7 +4128,7 @@
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42901</v>
       </c>
       <c r="V33" s="2"/>
@@ -4194,15 +4137,15 @@
         <v>0</v>
       </c>
       <c r="AY33" s="5">
-        <f>(SUM(AN32:AW32)+SUM(B33:AM33))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ33" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY33, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA33" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY33, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB33" s="3">
@@ -4211,7 +4154,7 @@
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42902</v>
       </c>
       <c r="AX34" s="5">
@@ -4219,15 +4162,15 @@
         <v>0</v>
       </c>
       <c r="AY34" s="5">
-        <f>(SUM(AN33:AW33)+SUM(B34:AM34))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ34" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY34, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA34" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY34, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB34" s="3">
@@ -4236,7 +4179,7 @@
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42903</v>
       </c>
       <c r="S35" s="1"/>
@@ -4256,15 +4199,15 @@
         <v>0</v>
       </c>
       <c r="AY35" s="5">
-        <f>(SUM(AN34:AW34)+SUM(B35:AM35))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ35" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY35, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA35" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY35, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB35" s="3">
@@ -4273,7 +4216,7 @@
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42904</v>
       </c>
       <c r="Q36" s="1"/>
@@ -4295,15 +4238,15 @@
         <v>0</v>
       </c>
       <c r="AY36" s="5">
-        <f>(SUM(AN35:AW35)+SUM(B36:AM36))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ36" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY36, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA36" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY36, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB36" s="3">
@@ -4312,7 +4255,7 @@
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42905</v>
       </c>
       <c r="P37" s="1"/>
@@ -4338,15 +4281,15 @@
         <v>0</v>
       </c>
       <c r="AY37" s="5">
-        <f>(SUM(AN36:AW36)+SUM(B37:AM37))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ37" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY37, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA37" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY37, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB37" s="3">
@@ -4355,7 +4298,7 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42906</v>
       </c>
       <c r="N38" s="1"/>
@@ -4383,15 +4326,15 @@
         <v>0</v>
       </c>
       <c r="AY38" s="5">
-        <f>(SUM(AN37:AW37)+SUM(B38:AM38))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ38" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY38, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA38" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY38, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB38" s="3">
@@ -4400,7 +4343,7 @@
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42907</v>
       </c>
       <c r="M39" s="1"/>
@@ -4426,15 +4369,15 @@
         <v>0</v>
       </c>
       <c r="AY39" s="5">
-        <f>(SUM(AN38:AW38)+SUM(B39:AM39))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ39" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY39, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA39" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY39, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB39" s="3">
@@ -4443,7 +4386,7 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42908</v>
       </c>
       <c r="L40" s="1"/>
@@ -4468,15 +4411,15 @@
         <v>0</v>
       </c>
       <c r="AY40" s="5">
-        <f>(SUM(AN39:AW39)+SUM(B40:AM40))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ40" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY40, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA40" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY40, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB40" s="3">
@@ -4485,7 +4428,7 @@
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42909</v>
       </c>
       <c r="M41" s="1"/>
@@ -4504,15 +4447,15 @@
         <v>0</v>
       </c>
       <c r="AY41" s="5">
-        <f>(SUM(AN40:AW40)+SUM(B41:AM41))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ41" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY41, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA41" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY41, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB41" s="3">
@@ -4521,7 +4464,7 @@
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42910</v>
       </c>
       <c r="AX42" s="5">
@@ -4529,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="AY42" s="5">
-        <f>(SUM(AN41:AW41)+SUM(B42:AM42))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ42" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY42, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA42" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY42, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB42" s="3">
@@ -4546,7 +4489,7 @@
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42911</v>
       </c>
       <c r="O43" s="1"/>
@@ -4573,15 +4516,15 @@
         <v>0</v>
       </c>
       <c r="AY43" s="5">
-        <f>(SUM(AN42:AW42)+SUM(B43:AM43))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ43" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY43, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA43" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY43, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB43" s="3">
@@ -4590,7 +4533,7 @@
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42912</v>
       </c>
       <c r="AX44" s="5">
@@ -4598,15 +4541,15 @@
         <v>0</v>
       </c>
       <c r="AY44" s="5">
-        <f>(SUM(AN43:AW43)+SUM(B44:AM44))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ44" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY44, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA44" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY44, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB44" s="3">
@@ -4615,7 +4558,7 @@
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42913</v>
       </c>
       <c r="AX45" s="5">
@@ -4623,15 +4566,15 @@
         <v>0</v>
       </c>
       <c r="AY45" s="5">
-        <f>(SUM(AN44:AW44)+SUM(B45:AM45))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ45" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY45, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA45" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY45, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB45" s="3">
@@ -4640,7 +4583,7 @@
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42914</v>
       </c>
       <c r="AX46" s="5">
@@ -4648,15 +4591,15 @@
         <v>0</v>
       </c>
       <c r="AY46" s="5">
-        <f>(SUM(AN45:AW45)+SUM(B46:AM46))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ46" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY46, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA46" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY46, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB46" s="3">
@@ -4665,7 +4608,7 @@
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42915</v>
       </c>
       <c r="AX47" s="5">
@@ -4673,15 +4616,15 @@
         <v>0</v>
       </c>
       <c r="AY47" s="5">
-        <f>(SUM(AN46:AW46)+SUM(B47:AM47))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ47" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY47, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA47" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY47, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB47" s="3">
@@ -4690,7 +4633,7 @@
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42916</v>
       </c>
       <c r="AX48" s="5">
@@ -4698,15 +4641,15 @@
         <v>0</v>
       </c>
       <c r="AY48" s="5">
-        <f>(SUM(AN47:AW47)+SUM(B48:AM48))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ48" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY48, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA48" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY48, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB48" s="3">
@@ -4715,7 +4658,7 @@
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42917</v>
       </c>
       <c r="AX49" s="5">
@@ -4723,15 +4666,15 @@
         <v>0</v>
       </c>
       <c r="AY49" s="5">
-        <f>(SUM(AN48:AW48)+SUM(B49:AM49))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ49" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY49, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA49" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY49, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB49" s="3">
@@ -4740,7 +4683,7 @@
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42918</v>
       </c>
       <c r="AX50" s="5">
@@ -4748,15 +4691,15 @@
         <v>0</v>
       </c>
       <c r="AY50" s="5">
-        <f>(SUM(AN49:AW49)+SUM(B50:AM50))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ50" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY50, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA50" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY50, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB50" s="3">
@@ -4765,7 +4708,7 @@
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42919</v>
       </c>
       <c r="AX51" s="5">
@@ -4773,15 +4716,15 @@
         <v>0</v>
       </c>
       <c r="AY51" s="5">
-        <f>(SUM(AN50:AW50)+SUM(B51:AM51))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ51" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY51, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA51" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY51, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB51" s="3">
@@ -4790,7 +4733,7 @@
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42920</v>
       </c>
       <c r="AX52" s="5">
@@ -4798,15 +4741,15 @@
         <v>0</v>
       </c>
       <c r="AY52" s="5">
-        <f>(SUM(AN51:AW51)+SUM(B52:AM52))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ52" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY52, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA52" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY52, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB52" s="3">
@@ -4815,7 +4758,7 @@
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42921</v>
       </c>
       <c r="AX53" s="5">
@@ -4823,15 +4766,15 @@
         <v>0</v>
       </c>
       <c r="AY53" s="5">
-        <f>(SUM(AN52:AW52)+SUM(B53:AM53))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ53" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY53, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA53" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY53, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB53" s="3">
@@ -4840,7 +4783,7 @@
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42922</v>
       </c>
       <c r="AX54" s="5">
@@ -4848,15 +4791,15 @@
         <v>0</v>
       </c>
       <c r="AY54" s="5">
-        <f>(SUM(AN53:AW53)+SUM(B54:AM54))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ54" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY54, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA54" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY54, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB54" s="3">
@@ -4865,7 +4808,7 @@
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42923</v>
       </c>
       <c r="AX55" s="5">
@@ -4873,15 +4816,15 @@
         <v>0</v>
       </c>
       <c r="AY55" s="5">
-        <f>(SUM(AN54:AW54)+SUM(B55:AM55))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ55" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY55, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA55" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY55, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB55" s="3">
@@ -4890,7 +4833,7 @@
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42924</v>
       </c>
       <c r="AX56" s="5">
@@ -4898,15 +4841,15 @@
         <v>0</v>
       </c>
       <c r="AY56" s="5">
-        <f>(SUM(AN55:AW55)+SUM(B56:AM56))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ56" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY56, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA56" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY56, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB56" s="3">
@@ -4915,7 +4858,7 @@
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42925</v>
       </c>
       <c r="AX57" s="5">
@@ -4923,15 +4866,15 @@
         <v>0</v>
       </c>
       <c r="AY57" s="5">
-        <f>(SUM(AN56:AW56)+SUM(B57:AM57))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ57" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY57, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA57" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY57, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB57" s="3">
@@ -4940,7 +4883,7 @@
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42926</v>
       </c>
       <c r="AX58" s="5">
@@ -4948,15 +4891,15 @@
         <v>0</v>
       </c>
       <c r="AY58" s="5">
-        <f>(SUM(AN57:AW57)+SUM(B58:AM58))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ58" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY58, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA58" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY58, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB58" s="3">
@@ -4965,7 +4908,7 @@
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42927</v>
       </c>
       <c r="AX59" s="5">
@@ -4973,15 +4916,15 @@
         <v>0</v>
       </c>
       <c r="AY59" s="5">
-        <f>(SUM(AN58:AW58)+SUM(B59:AM59))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ59" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY59, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA59" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY59, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB59" s="3">
@@ -4990,7 +4933,7 @@
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42928</v>
       </c>
       <c r="AX60" s="5">
@@ -4998,15 +4941,15 @@
         <v>0</v>
       </c>
       <c r="AY60" s="5">
-        <f>(SUM(AN59:AW59)+SUM(B60:AM60))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ60" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY60, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA60" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY60, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB60" s="3">
@@ -5015,7 +4958,7 @@
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42929</v>
       </c>
       <c r="AX61" s="5">
@@ -5023,15 +4966,15 @@
         <v>0</v>
       </c>
       <c r="AY61" s="5">
-        <f>(SUM(AN60:AW60)+SUM(B61:AM61))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ61" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY61, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA61" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY61, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB61" s="3">
@@ -5040,7 +4983,7 @@
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42930</v>
       </c>
       <c r="AX62" s="5">
@@ -5048,15 +4991,15 @@
         <v>0</v>
       </c>
       <c r="AY62" s="5">
-        <f>(SUM(AN61:AW61)+SUM(B62:AM62))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ62" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY62, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA62" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY62, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB62" s="3">
@@ -5065,7 +5008,7 @@
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42931</v>
       </c>
       <c r="AX63" s="5">
@@ -5073,15 +5016,15 @@
         <v>0</v>
       </c>
       <c r="AY63" s="5">
-        <f>(SUM(AN62:AW62)+SUM(B63:AM63))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ63" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY63, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA63" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY63, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB63" s="3">
@@ -5090,7 +5033,7 @@
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42932</v>
       </c>
       <c r="AX64" s="5">
@@ -5098,15 +5041,15 @@
         <v>0</v>
       </c>
       <c r="AY64" s="5">
-        <f>(SUM(AN63:AW63)+SUM(B64:AM64))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ64" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY64, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA64" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY64, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB64" s="3">
@@ -5115,7 +5058,7 @@
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42933</v>
       </c>
       <c r="AX65" s="5">
@@ -5123,15 +5066,15 @@
         <v>0</v>
       </c>
       <c r="AY65" s="5">
-        <f>(SUM(AN64:AW64)+SUM(B65:AM65))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ65" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY65, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="BA65" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY65, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="BB65" s="3">
@@ -5140,7 +5083,7 @@
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42934</v>
       </c>
       <c r="AX66" s="5">
@@ -5148,15 +5091,15 @@
         <v>0</v>
       </c>
       <c r="AY66" s="5">
-        <f>(SUM(AN65:AW65)+SUM(B66:AM66))/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AZ66" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY66, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ref="AZ66:AZ129" ca="1" si="4">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY66, 0, 0, -$BC$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BA66" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY66, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ref="BA66:BA129" ca="1" si="5">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY66, 0, 0, -$BD$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BB66" s="3">
@@ -5165,7 +5108,7 @@
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42935</v>
       </c>
       <c r="AX67" s="5">
@@ -5173,15 +5116,15 @@
         <v>0</v>
       </c>
       <c r="AY67" s="5">
-        <f>(SUM(AN66:AW66)+SUM(B67:AM67))/2</f>
+        <f t="shared" ref="AY67:AY130" si="6">(SUM(AN66:AW66)+SUM(B67:AM67))/2</f>
         <v>0</v>
       </c>
       <c r="AZ67" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY67, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA67" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY67, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB67" s="3">
@@ -5190,7 +5133,7 @@
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <f t="shared" ref="A68:A131" si="7">A67+1</f>
         <v>42936</v>
       </c>
       <c r="AX68" s="5">
@@ -5198,15 +5141,15 @@
         <v>0</v>
       </c>
       <c r="AY68" s="5">
-        <f>(SUM(AN67:AW67)+SUM(B68:AM68))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ68" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY68, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA68" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY68, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB68" s="3">
@@ -5215,7 +5158,7 @@
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42937</v>
       </c>
       <c r="AX69" s="5">
@@ -5223,15 +5166,15 @@
         <v>0</v>
       </c>
       <c r="AY69" s="5">
-        <f>(SUM(AN68:AW68)+SUM(B69:AM69))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ69" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY69, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA69" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY69, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB69" s="3">
@@ -5240,7 +5183,7 @@
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42938</v>
       </c>
       <c r="AX70" s="5">
@@ -5248,15 +5191,15 @@
         <v>0</v>
       </c>
       <c r="AY70" s="5">
-        <f>(SUM(AN69:AW69)+SUM(B70:AM70))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ70" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY70, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA70" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY70, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB70" s="3">
@@ -5265,7 +5208,7 @@
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42939</v>
       </c>
       <c r="AX71" s="5">
@@ -5273,15 +5216,15 @@
         <v>0</v>
       </c>
       <c r="AY71" s="5">
-        <f>(SUM(AN70:AW70)+SUM(B71:AM71))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ71" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY71, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA71" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY71, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB71" s="3">
@@ -5290,7 +5233,7 @@
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42940</v>
       </c>
       <c r="AX72" s="5">
@@ -5298,15 +5241,15 @@
         <v>0</v>
       </c>
       <c r="AY72" s="5">
-        <f>(SUM(AN71:AW71)+SUM(B72:AM72))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ72" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY72, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA72" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY72, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB72" s="3">
@@ -5315,7 +5258,7 @@
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42941</v>
       </c>
       <c r="AX73" s="5">
@@ -5323,15 +5266,15 @@
         <v>0</v>
       </c>
       <c r="AY73" s="5">
-        <f>(SUM(AN72:AW72)+SUM(B73:AM73))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ73" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY73, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA73" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY73, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB73" s="3">
@@ -5340,7 +5283,7 @@
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42942</v>
       </c>
       <c r="AX74" s="5">
@@ -5348,15 +5291,15 @@
         <v>0</v>
       </c>
       <c r="AY74" s="5">
-        <f>(SUM(AN73:AW73)+SUM(B74:AM74))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ74" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY74, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA74" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY74, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB74" s="3">
@@ -5365,7 +5308,7 @@
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42943</v>
       </c>
       <c r="AX75" s="5">
@@ -5373,15 +5316,15 @@
         <v>0</v>
       </c>
       <c r="AY75" s="5">
-        <f>(SUM(AN74:AW74)+SUM(B75:AM75))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ75" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY75, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA75" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY75, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB75" s="3">
@@ -5390,7 +5333,7 @@
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42944</v>
       </c>
       <c r="AX76" s="5">
@@ -5398,15 +5341,15 @@
         <v>0</v>
       </c>
       <c r="AY76" s="5">
-        <f>(SUM(AN75:AW75)+SUM(B76:AM76))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ76" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY76, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA76" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY76, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB76" s="3">
@@ -5415,7 +5358,7 @@
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42945</v>
       </c>
       <c r="AX77" s="5">
@@ -5423,15 +5366,15 @@
         <v>0</v>
       </c>
       <c r="AY77" s="5">
-        <f>(SUM(AN76:AW76)+SUM(B77:AM77))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ77" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY77, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA77" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY77, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB77" s="3">
@@ -5440,7 +5383,7 @@
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42946</v>
       </c>
       <c r="AX78" s="5">
@@ -5448,15 +5391,15 @@
         <v>0</v>
       </c>
       <c r="AY78" s="5">
-        <f>(SUM(AN77:AW77)+SUM(B78:AM78))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ78" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY78, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA78" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY78, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB78" s="3">
@@ -5465,7 +5408,7 @@
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42947</v>
       </c>
       <c r="AX79" s="5">
@@ -5473,15 +5416,15 @@
         <v>0</v>
       </c>
       <c r="AY79" s="5">
-        <f>(SUM(AN78:AW78)+SUM(B79:AM79))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ79" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY79, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA79" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY79, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB79" s="3">
@@ -5490,7 +5433,7 @@
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42948</v>
       </c>
       <c r="AX80" s="5">
@@ -5498,15 +5441,15 @@
         <v>0</v>
       </c>
       <c r="AY80" s="5">
-        <f>(SUM(AN79:AW79)+SUM(B80:AM80))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ80" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY80, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA80" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY80, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB80" s="3">
@@ -5515,7 +5458,7 @@
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42949</v>
       </c>
       <c r="AX81" s="5">
@@ -5523,15 +5466,15 @@
         <v>0</v>
       </c>
       <c r="AY81" s="5">
-        <f>(SUM(AN80:AW80)+SUM(B81:AM81))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ81" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY81, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA81" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY81, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB81" s="3">
@@ -5540,7 +5483,7 @@
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42950</v>
       </c>
       <c r="AX82" s="5">
@@ -5548,15 +5491,15 @@
         <v>0</v>
       </c>
       <c r="AY82" s="5">
-        <f>(SUM(AN81:AW81)+SUM(B82:AM82))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ82" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY82, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA82" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY82, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB82" s="3">
@@ -5565,7 +5508,7 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42951</v>
       </c>
       <c r="AX83" s="5">
@@ -5573,15 +5516,15 @@
         <v>0</v>
       </c>
       <c r="AY83" s="5">
-        <f>(SUM(AN82:AW82)+SUM(B83:AM83))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ83" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY83, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA83" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY83, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB83" s="3">
@@ -5590,7 +5533,7 @@
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42952</v>
       </c>
       <c r="AX84" s="5">
@@ -5598,15 +5541,15 @@
         <v>0</v>
       </c>
       <c r="AY84" s="5">
-        <f>(SUM(AN83:AW83)+SUM(B84:AM84))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ84" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY84, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA84" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY84, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB84" s="3">
@@ -5615,7 +5558,7 @@
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42953</v>
       </c>
       <c r="AX85" s="5">
@@ -5623,15 +5566,15 @@
         <v>0</v>
       </c>
       <c r="AY85" s="5">
-        <f>(SUM(AN84:AW84)+SUM(B85:AM85))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ85" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY85, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA85" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY85, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB85" s="3">
@@ -5640,7 +5583,7 @@
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42954</v>
       </c>
       <c r="AX86" s="5">
@@ -5648,15 +5591,15 @@
         <v>0</v>
       </c>
       <c r="AY86" s="5">
-        <f>(SUM(AN85:AW85)+SUM(B86:AM86))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ86" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY86, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA86" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY86, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB86" s="3">
@@ -5665,7 +5608,7 @@
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42955</v>
       </c>
       <c r="AX87" s="5">
@@ -5673,15 +5616,15 @@
         <v>0</v>
       </c>
       <c r="AY87" s="5">
-        <f>(SUM(AN86:AW86)+SUM(B87:AM87))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ87" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY87, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA87" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY87, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB87" s="3">
@@ -5690,7 +5633,7 @@
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42956</v>
       </c>
       <c r="AX88" s="5">
@@ -5698,15 +5641,15 @@
         <v>0</v>
       </c>
       <c r="AY88" s="5">
-        <f>(SUM(AN87:AW87)+SUM(B88:AM88))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ88" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY88, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA88" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY88, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB88" s="3">
@@ -5715,7 +5658,7 @@
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42957</v>
       </c>
       <c r="AX89" s="5">
@@ -5723,15 +5666,15 @@
         <v>0</v>
       </c>
       <c r="AY89" s="5">
-        <f>(SUM(AN88:AW88)+SUM(B89:AM89))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ89" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY89, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA89" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY89, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB89" s="3">
@@ -5740,7 +5683,7 @@
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42958</v>
       </c>
       <c r="AX90" s="5">
@@ -5748,15 +5691,15 @@
         <v>0</v>
       </c>
       <c r="AY90" s="5">
-        <f>(SUM(AN89:AW89)+SUM(B90:AM90))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ90" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY90, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA90" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY90, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB90" s="3">
@@ -5765,7 +5708,7 @@
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42959</v>
       </c>
       <c r="AX91" s="5">
@@ -5773,15 +5716,15 @@
         <v>0</v>
       </c>
       <c r="AY91" s="5">
-        <f>(SUM(AN90:AW90)+SUM(B91:AM91))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ91" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY91, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA91" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY91, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB91" s="3">
@@ -5790,7 +5733,7 @@
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42960</v>
       </c>
       <c r="AX92" s="5">
@@ -5798,15 +5741,15 @@
         <v>0</v>
       </c>
       <c r="AY92" s="5">
-        <f>(SUM(AN91:AW91)+SUM(B92:AM92))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ92" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY92, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA92" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY92, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB92" s="3">
@@ -5815,7 +5758,7 @@
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42961</v>
       </c>
       <c r="AX93" s="5">
@@ -5823,15 +5766,15 @@
         <v>0</v>
       </c>
       <c r="AY93" s="5">
-        <f>(SUM(AN92:AW92)+SUM(B93:AM93))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ93" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY93, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA93" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY93, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB93" s="3">
@@ -5840,7 +5783,7 @@
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42962</v>
       </c>
       <c r="AX94" s="5">
@@ -5848,15 +5791,15 @@
         <v>0</v>
       </c>
       <c r="AY94" s="5">
-        <f>(SUM(AN93:AW93)+SUM(B94:AM94))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ94" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY94, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA94" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY94, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB94" s="3">
@@ -5865,7 +5808,7 @@
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42963</v>
       </c>
       <c r="AX95" s="5">
@@ -5873,15 +5816,15 @@
         <v>0</v>
       </c>
       <c r="AY95" s="5">
-        <f>(SUM(AN94:AW94)+SUM(B95:AM95))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ95" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY95, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA95" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY95, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB95" s="3">
@@ -5890,7 +5833,7 @@
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42964</v>
       </c>
       <c r="AX96" s="5">
@@ -5898,15 +5841,15 @@
         <v>0</v>
       </c>
       <c r="AY96" s="5">
-        <f>(SUM(AN95:AW95)+SUM(B96:AM96))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ96" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY96, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA96" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY96, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB96" s="3">
@@ -5915,7 +5858,7 @@
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42965</v>
       </c>
       <c r="AX97" s="5">
@@ -5923,15 +5866,15 @@
         <v>0</v>
       </c>
       <c r="AY97" s="5">
-        <f>(SUM(AN96:AW96)+SUM(B97:AM97))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ97" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY97, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA97" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY97, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB97" s="3">
@@ -5940,7 +5883,7 @@
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42966</v>
       </c>
       <c r="AX98" s="5">
@@ -5948,15 +5891,15 @@
         <v>0</v>
       </c>
       <c r="AY98" s="5">
-        <f>(SUM(AN97:AW97)+SUM(B98:AM98))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ98" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY98, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA98" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY98, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB98" s="3">
@@ -5965,7 +5908,7 @@
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42967</v>
       </c>
       <c r="AX99" s="5">
@@ -5973,15 +5916,15 @@
         <v>0</v>
       </c>
       <c r="AY99" s="5">
-        <f>(SUM(AN98:AW98)+SUM(B99:AM99))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ99" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY99, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA99" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY99, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB99" s="3">
@@ -5990,7 +5933,7 @@
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42968</v>
       </c>
       <c r="AX100" s="5">
@@ -5998,15 +5941,15 @@
         <v>0</v>
       </c>
       <c r="AY100" s="5">
-        <f>(SUM(AN99:AW99)+SUM(B100:AM100))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ100" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY100, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA100" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY100, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB100" s="3">
@@ -6015,7 +5958,7 @@
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42969</v>
       </c>
       <c r="AR101" s="6"/>
@@ -6029,15 +5972,15 @@
         <v>0</v>
       </c>
       <c r="AY101" s="5">
-        <f>(SUM(AN100:AW100)+SUM(B101:AM101))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ101" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY101, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA101" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY101, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB101" s="3">
@@ -6046,7 +5989,7 @@
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42970</v>
       </c>
       <c r="AO102" s="6"/>
@@ -6055,15 +5998,15 @@
         <v>0</v>
       </c>
       <c r="AY102" s="5">
-        <f>(SUM(AN101:AW101)+SUM(B102:AM102))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ102" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY102, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA102" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY102, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB102" s="3">
@@ -6072,7 +6015,7 @@
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42971</v>
       </c>
       <c r="AX103" s="5">
@@ -6080,15 +6023,15 @@
         <v>0</v>
       </c>
       <c r="AY103" s="5">
-        <f>(SUM(AN102:AW102)+SUM(B103:AM103))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ103" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY103, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA103" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY103, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB103" s="3">
@@ -6097,7 +6040,7 @@
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42972</v>
       </c>
       <c r="AX104" s="5">
@@ -6105,15 +6048,15 @@
         <v>0</v>
       </c>
       <c r="AY104" s="5">
-        <f>(SUM(AN103:AW103)+SUM(B104:AM104))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ104" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY104, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA104" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY104, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB104" s="3">
@@ -6122,7 +6065,7 @@
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42973</v>
       </c>
       <c r="AX105" s="5">
@@ -6130,15 +6073,15 @@
         <v>0</v>
       </c>
       <c r="AY105" s="5">
-        <f>(SUM(AN104:AW104)+SUM(B105:AM105))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ105" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY105, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA105" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY105, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB105" s="3">
@@ -6147,7 +6090,7 @@
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42974</v>
       </c>
       <c r="AX106" s="5">
@@ -6155,15 +6098,15 @@
         <v>0</v>
       </c>
       <c r="AY106" s="5">
-        <f>(SUM(AN105:AW105)+SUM(B106:AM106))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ106" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY106, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA106" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY106, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB106" s="3">
@@ -6172,7 +6115,7 @@
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42975</v>
       </c>
       <c r="AX107" s="5">
@@ -6180,15 +6123,15 @@
         <v>0</v>
       </c>
       <c r="AY107" s="5">
-        <f>(SUM(AN106:AW106)+SUM(B107:AM107))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ107" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY107, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA107" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY107, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB107" s="3">
@@ -6197,7 +6140,7 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42976</v>
       </c>
       <c r="AX108" s="5">
@@ -6205,15 +6148,15 @@
         <v>0</v>
       </c>
       <c r="AY108" s="5">
-        <f>(SUM(AN107:AW107)+SUM(B108:AM108))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ108" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY108, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA108" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY108, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB108" s="3">
@@ -6222,7 +6165,7 @@
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42977</v>
       </c>
       <c r="AX109" s="5">
@@ -6230,15 +6173,15 @@
         <v>0</v>
       </c>
       <c r="AY109" s="5">
-        <f>(SUM(AN108:AW108)+SUM(B109:AM109))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ109" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY109, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA109" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY109, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB109" s="3">
@@ -6247,7 +6190,7 @@
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42978</v>
       </c>
       <c r="AX110" s="5">
@@ -6255,15 +6198,15 @@
         <v>0</v>
       </c>
       <c r="AY110" s="5">
-        <f>(SUM(AN109:AW109)+SUM(B110:AM110))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ110" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY110, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA110" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY110, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB110" s="3">
@@ -6272,7 +6215,7 @@
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42979</v>
       </c>
       <c r="AX111" s="5">
@@ -6280,15 +6223,15 @@
         <v>0</v>
       </c>
       <c r="AY111" s="5">
-        <f>(SUM(AN110:AW110)+SUM(B111:AM111))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ111" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY111, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA111" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY111, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB111" s="3">
@@ -6297,7 +6240,7 @@
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42980</v>
       </c>
       <c r="AX112" s="5">
@@ -6305,15 +6248,15 @@
         <v>0</v>
       </c>
       <c r="AY112" s="5">
-        <f>(SUM(AN111:AW111)+SUM(B112:AM112))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ112" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY112, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA112" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY112, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB112" s="3">
@@ -6322,7 +6265,7 @@
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42981</v>
       </c>
       <c r="AX113" s="5">
@@ -6330,15 +6273,15 @@
         <v>0</v>
       </c>
       <c r="AY113" s="5">
-        <f>(SUM(AN112:AW112)+SUM(B113:AM113))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ113" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY113, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA113" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY113, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB113" s="3">
@@ -6347,7 +6290,7 @@
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42982</v>
       </c>
       <c r="AX114" s="5">
@@ -6355,15 +6298,15 @@
         <v>0</v>
       </c>
       <c r="AY114" s="5">
-        <f>(SUM(AN113:AW113)+SUM(B114:AM114))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ114" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY114, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA114" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY114, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB114" s="3">
@@ -6372,7 +6315,7 @@
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42983</v>
       </c>
       <c r="AX115" s="5">
@@ -6380,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="AY115" s="5">
-        <f>(SUM(AN114:AW114)+SUM(B115:AM115))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ115" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY115, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA115" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY115, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB115" s="3">
@@ -6397,7 +6340,7 @@
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42984</v>
       </c>
       <c r="AX116" s="5">
@@ -6405,15 +6348,15 @@
         <v>0</v>
       </c>
       <c r="AY116" s="5">
-        <f>(SUM(AN115:AW115)+SUM(B116:AM116))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ116" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY116, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA116" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY116, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB116" s="3">
@@ -6422,7 +6365,7 @@
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42985</v>
       </c>
       <c r="AX117" s="5">
@@ -6430,15 +6373,15 @@
         <v>0</v>
       </c>
       <c r="AY117" s="5">
-        <f>(SUM(AN116:AW116)+SUM(B117:AM117))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ117" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY117, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA117" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY117, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB117" s="3">
@@ -6447,7 +6390,7 @@
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42986</v>
       </c>
       <c r="AX118" s="5">
@@ -6455,15 +6398,15 @@
         <v>0</v>
       </c>
       <c r="AY118" s="5">
-        <f>(SUM(AN117:AW117)+SUM(B118:AM118))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ118" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY118, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA118" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY118, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB118" s="3">
@@ -6472,7 +6415,7 @@
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42987</v>
       </c>
       <c r="AX119" s="5">
@@ -6480,15 +6423,15 @@
         <v>0</v>
       </c>
       <c r="AY119" s="5">
-        <f>(SUM(AN118:AW118)+SUM(B119:AM119))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ119" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY119, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA119" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY119, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB119" s="3">
@@ -6497,7 +6440,7 @@
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42988</v>
       </c>
       <c r="AX120" s="5">
@@ -6505,15 +6448,15 @@
         <v>0</v>
       </c>
       <c r="AY120" s="5">
-        <f>(SUM(AN119:AW119)+SUM(B120:AM120))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ120" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY120, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA120" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY120, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB120" s="3">
@@ -6522,7 +6465,7 @@
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42989</v>
       </c>
       <c r="AX121" s="5">
@@ -6530,15 +6473,15 @@
         <v>0</v>
       </c>
       <c r="AY121" s="5">
-        <f>(SUM(AN120:AW120)+SUM(B121:AM121))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ121" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY121, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA121" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY121, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB121" s="3">
@@ -6547,7 +6490,7 @@
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42990</v>
       </c>
       <c r="AX122" s="5">
@@ -6555,15 +6498,15 @@
         <v>0</v>
       </c>
       <c r="AY122" s="5">
-        <f>(SUM(AN121:AW121)+SUM(B122:AM122))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ122" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY122, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA122" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY122, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB122" s="3">
@@ -6572,7 +6515,7 @@
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42991</v>
       </c>
       <c r="AX123" s="5">
@@ -6580,15 +6523,15 @@
         <v>0</v>
       </c>
       <c r="AY123" s="5">
-        <f>(SUM(AN122:AW122)+SUM(B123:AM123))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ123" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY123, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA123" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY123, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB123" s="3">
@@ -6597,7 +6540,7 @@
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42992</v>
       </c>
       <c r="AX124" s="5">
@@ -6605,15 +6548,15 @@
         <v>0</v>
       </c>
       <c r="AY124" s="5">
-        <f>(SUM(AN123:AW123)+SUM(B124:AM124))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ124" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY124, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA124" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY124, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB124" s="3">
@@ -6622,7 +6565,7 @@
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42993</v>
       </c>
       <c r="AX125" s="5">
@@ -6630,15 +6573,15 @@
         <v>0</v>
       </c>
       <c r="AY125" s="5">
-        <f>(SUM(AN124:AW124)+SUM(B125:AM125))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ125" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY125, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA125" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY125, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB125" s="3">
@@ -6647,7 +6590,7 @@
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42994</v>
       </c>
       <c r="AX126" s="5">
@@ -6655,15 +6598,15 @@
         <v>0</v>
       </c>
       <c r="AY126" s="5">
-        <f>(SUM(AN125:AW125)+SUM(B126:AM126))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ126" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY126, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA126" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY126, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB126" s="3">
@@ -6672,7 +6615,7 @@
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42995</v>
       </c>
       <c r="AO127" s="6"/>
@@ -6684,15 +6627,15 @@
         <v>0</v>
       </c>
       <c r="AY127" s="5">
-        <f>(SUM(AN126:AW126)+SUM(B127:AM127))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ127" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY127, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA127" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY127, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB127" s="3">
@@ -6701,7 +6644,7 @@
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42996</v>
       </c>
       <c r="AX128" s="5">
@@ -6709,15 +6652,15 @@
         <v>0</v>
       </c>
       <c r="AY128" s="5">
-        <f>(SUM(AN127:AW127)+SUM(B128:AM128))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ128" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY128, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA128" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY128, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB128" s="3">
@@ -6726,7 +6669,7 @@
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42997</v>
       </c>
       <c r="AO129" s="6"/>
@@ -6735,15 +6678,15 @@
         <v>0</v>
       </c>
       <c r="AY129" s="5">
-        <f>(SUM(AN128:AW128)+SUM(B129:AM129))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ129" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY129, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BA129" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY129, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BB129" s="3">
@@ -6752,7 +6695,7 @@
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42998</v>
       </c>
       <c r="AX130" s="5">
@@ -6760,15 +6703,15 @@
         <v>0</v>
       </c>
       <c r="AY130" s="5">
-        <f>(SUM(AN129:AW129)+SUM(B130:AM130))/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ130" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY130, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ref="AZ130:AZ193" ca="1" si="8">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY130, 0, 0, -$BC$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BA130" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY130, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ref="BA130:BA193" ca="1" si="9">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY130, 0, 0, -$BD$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BB130" s="3">
@@ -6777,7 +6720,7 @@
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42999</v>
       </c>
       <c r="AX131" s="5">
@@ -6785,15 +6728,15 @@
         <v>0</v>
       </c>
       <c r="AY131" s="5">
-        <f>(SUM(AN130:AW130)+SUM(B131:AM131))/2</f>
+        <f t="shared" ref="AY131:AY194" si="10">(SUM(AN130:AW130)+SUM(B131:AM131))/2</f>
         <v>0</v>
       </c>
       <c r="AZ131" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY131, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA131" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY131, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB131" s="3">
@@ -6802,7 +6745,7 @@
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
-        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <f t="shared" ref="A132:A195" si="11">A131+1</f>
         <v>43000</v>
       </c>
       <c r="AX132" s="5">
@@ -6810,15 +6753,15 @@
         <v>0</v>
       </c>
       <c r="AY132" s="5">
-        <f>(SUM(AN131:AW131)+SUM(B132:AM132))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ132" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY132, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA132" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY132, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB132" s="3">
@@ -6827,7 +6770,7 @@
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43001</v>
       </c>
       <c r="AX133" s="5">
@@ -6835,15 +6778,15 @@
         <v>0</v>
       </c>
       <c r="AY133" s="5">
-        <f>(SUM(AN132:AW132)+SUM(B133:AM133))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ133" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY133, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA133" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY133, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB133" s="3">
@@ -6852,7 +6795,7 @@
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43002</v>
       </c>
       <c r="AR134" s="6"/>
@@ -6866,15 +6809,15 @@
         <v>0</v>
       </c>
       <c r="AY134" s="5">
-        <f>(SUM(AN133:AW133)+SUM(B134:AM134))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ134" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY134, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA134" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY134, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB134" s="3">
@@ -6883,7 +6826,7 @@
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43003</v>
       </c>
       <c r="AX135" s="5">
@@ -6891,15 +6834,15 @@
         <v>0</v>
       </c>
       <c r="AY135" s="5">
-        <f>(SUM(AN134:AW134)+SUM(B135:AM135))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ135" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY135, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA135" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY135, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB135" s="3">
@@ -6908,7 +6851,7 @@
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43004</v>
       </c>
       <c r="AX136" s="5">
@@ -6916,15 +6859,15 @@
         <v>0</v>
       </c>
       <c r="AY136" s="5">
-        <f>(SUM(AN135:AW135)+SUM(B136:AM136))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ136" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY136, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA136" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY136, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB136" s="3">
@@ -6933,7 +6876,7 @@
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43005</v>
       </c>
       <c r="AX137" s="5">
@@ -6941,15 +6884,15 @@
         <v>0</v>
       </c>
       <c r="AY137" s="5">
-        <f>(SUM(AN136:AW136)+SUM(B137:AM137))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ137" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY137, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA137" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY137, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB137" s="3">
@@ -6958,7 +6901,7 @@
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43006</v>
       </c>
       <c r="AX138" s="5">
@@ -6966,15 +6909,15 @@
         <v>0</v>
       </c>
       <c r="AY138" s="5">
-        <f>(SUM(AN137:AW137)+SUM(B138:AM138))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ138" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY138, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA138" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY138, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB138" s="3">
@@ -6983,7 +6926,7 @@
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43007</v>
       </c>
       <c r="AX139" s="5">
@@ -6991,15 +6934,15 @@
         <v>0</v>
       </c>
       <c r="AY139" s="5">
-        <f>(SUM(AN138:AW138)+SUM(B139:AM139))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ139" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY139, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA139" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY139, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB139" s="3">
@@ -7008,7 +6951,7 @@
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43008</v>
       </c>
       <c r="AX140" s="5">
@@ -7016,15 +6959,15 @@
         <v>0</v>
       </c>
       <c r="AY140" s="5">
-        <f>(SUM(AN139:AW139)+SUM(B140:AM140))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ140" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY140, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA140" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY140, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB140" s="3">
@@ -7033,7 +6976,7 @@
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43009</v>
       </c>
       <c r="AX141" s="5">
@@ -7041,15 +6984,15 @@
         <v>0</v>
       </c>
       <c r="AY141" s="5">
-        <f>(SUM(AN140:AW140)+SUM(B141:AM141))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ141" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY141, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA141" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY141, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB141" s="3">
@@ -7058,7 +7001,7 @@
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43010</v>
       </c>
       <c r="AX142" s="5">
@@ -7066,15 +7009,15 @@
         <v>0</v>
       </c>
       <c r="AY142" s="5">
-        <f>(SUM(AN141:AW141)+SUM(B142:AM142))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ142" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY142, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA142" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY142, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB142" s="3">
@@ -7083,7 +7026,7 @@
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43011</v>
       </c>
       <c r="AX143" s="5">
@@ -7091,15 +7034,15 @@
         <v>0</v>
       </c>
       <c r="AY143" s="5">
-        <f>(SUM(AN142:AW142)+SUM(B143:AM143))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ143" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY143, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA143" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY143, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB143" s="3">
@@ -7108,7 +7051,7 @@
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43012</v>
       </c>
       <c r="AX144" s="5">
@@ -7116,15 +7059,15 @@
         <v>0</v>
       </c>
       <c r="AY144" s="5">
-        <f>(SUM(AN143:AW143)+SUM(B144:AM144))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ144" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY144, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA144" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY144, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB144" s="3">
@@ -7133,7 +7076,7 @@
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43013</v>
       </c>
       <c r="AX145" s="5">
@@ -7141,15 +7084,15 @@
         <v>0</v>
       </c>
       <c r="AY145" s="5">
-        <f>(SUM(AN144:AW144)+SUM(B145:AM145))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ145" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY145, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA145" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY145, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB145" s="3">
@@ -7158,7 +7101,7 @@
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43014</v>
       </c>
       <c r="AX146" s="5">
@@ -7166,22 +7109,22 @@
         <v>0</v>
       </c>
       <c r="AY146" s="5">
-        <f>(SUM(AN145:AW145)+SUM(B146:AM146))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ146" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY146, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA146" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY146, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB146" s="3"/>
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43015</v>
       </c>
       <c r="AX147" s="5">
@@ -7189,22 +7132,22 @@
         <v>0</v>
       </c>
       <c r="AY147" s="5">
-        <f>(SUM(AN146:AW146)+SUM(B147:AM147))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ147" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY147, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA147" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY147, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB147" s="3"/>
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43016</v>
       </c>
       <c r="AX148" s="5">
@@ -7212,22 +7155,22 @@
         <v>0</v>
       </c>
       <c r="AY148" s="5">
-        <f>(SUM(AN147:AW147)+SUM(B148:AM148))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ148" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY148, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA148" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY148, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB148" s="3"/>
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43017</v>
       </c>
       <c r="AX149" s="5">
@@ -7235,22 +7178,22 @@
         <v>0</v>
       </c>
       <c r="AY149" s="5">
-        <f>(SUM(AN148:AW148)+SUM(B149:AM149))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ149" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY149, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA149" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY149, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB149" s="3"/>
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43018</v>
       </c>
       <c r="AX150" s="5">
@@ -7258,22 +7201,22 @@
         <v>0</v>
       </c>
       <c r="AY150" s="5">
-        <f>(SUM(AN149:AW149)+SUM(B150:AM150))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ150" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY150, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA150" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY150, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB150" s="3"/>
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43019</v>
       </c>
       <c r="AX151" s="5">
@@ -7281,22 +7224,22 @@
         <v>0</v>
       </c>
       <c r="AY151" s="5">
-        <f>(SUM(AN150:AW150)+SUM(B151:AM151))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ151" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY151, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA151" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY151, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB151" s="3"/>
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43020</v>
       </c>
       <c r="AX152" s="5">
@@ -7304,22 +7247,22 @@
         <v>0</v>
       </c>
       <c r="AY152" s="5">
-        <f>(SUM(AN151:AW151)+SUM(B152:AM152))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ152" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY152, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA152" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY152, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB152" s="3"/>
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43021</v>
       </c>
       <c r="AX153" s="5">
@@ -7327,22 +7270,22 @@
         <v>0</v>
       </c>
       <c r="AY153" s="5">
-        <f>(SUM(AN152:AW152)+SUM(B153:AM153))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ153" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY153, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA153" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY153, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB153" s="3"/>
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43022</v>
       </c>
       <c r="AS154" s="6"/>
@@ -7355,22 +7298,22 @@
         <v>0</v>
       </c>
       <c r="AY154" s="5">
-        <f>(SUM(AN153:AW153)+SUM(B154:AM154))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ154" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY154, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA154" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY154, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB154" s="3"/>
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43023</v>
       </c>
       <c r="AX155" s="5">
@@ -7378,22 +7321,22 @@
         <v>0</v>
       </c>
       <c r="AY155" s="5">
-        <f>(SUM(AN154:AW154)+SUM(B155:AM155))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ155" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY155, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA155" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY155, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB155" s="3"/>
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43024</v>
       </c>
       <c r="AX156" s="5">
@@ -7401,22 +7344,22 @@
         <v>0</v>
       </c>
       <c r="AY156" s="5">
-        <f>(SUM(AN155:AW155)+SUM(B156:AM156))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ156" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY156, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA156" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY156, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB156" s="3"/>
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43025</v>
       </c>
       <c r="AO157" s="6"/>
@@ -7433,22 +7376,22 @@
         <v>0</v>
       </c>
       <c r="AY157" s="5">
-        <f>(SUM(AN156:AW156)+SUM(B157:AM157))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ157" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY157, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA157" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY157, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB157" s="3"/>
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43026</v>
       </c>
       <c r="AX158" s="5">
@@ -7456,22 +7399,22 @@
         <v>0</v>
       </c>
       <c r="AY158" s="5">
-        <f>(SUM(AN157:AW157)+SUM(B158:AM158))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ158" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY158, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA158" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY158, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB158" s="3"/>
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43027</v>
       </c>
       <c r="AX159" s="5">
@@ -7479,22 +7422,22 @@
         <v>0</v>
       </c>
       <c r="AY159" s="5">
-        <f>(SUM(AN158:AW158)+SUM(B159:AM159))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ159" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY159, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA159" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY159, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB159" s="3"/>
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43028</v>
       </c>
       <c r="AX160" s="5">
@@ -7502,22 +7445,22 @@
         <v>0</v>
       </c>
       <c r="AY160" s="5">
-        <f>(SUM(AN159:AW159)+SUM(B160:AM160))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ160" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY160, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA160" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY160, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB160" s="3"/>
     </row>
     <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43029</v>
       </c>
       <c r="AX161" s="5">
@@ -7525,22 +7468,22 @@
         <v>0</v>
       </c>
       <c r="AY161" s="5">
-        <f>(SUM(AN160:AW160)+SUM(B161:AM161))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ161" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY161, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA161" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY161, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB161" s="3"/>
     </row>
     <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43030</v>
       </c>
       <c r="AX162" s="5">
@@ -7548,22 +7491,22 @@
         <v>0</v>
       </c>
       <c r="AY162" s="5">
-        <f>(SUM(AN161:AW161)+SUM(B162:AM162))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ162" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY162, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA162" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY162, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB162" s="3"/>
     </row>
     <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43031</v>
       </c>
       <c r="AX163" s="5">
@@ -7571,22 +7514,22 @@
         <v>0</v>
       </c>
       <c r="AY163" s="5">
-        <f>(SUM(AN162:AW162)+SUM(B163:AM163))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ163" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY163, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA163" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY163, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB163" s="3"/>
     </row>
     <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43032</v>
       </c>
       <c r="AX164" s="5">
@@ -7594,22 +7537,22 @@
         <v>0</v>
       </c>
       <c r="AY164" s="5">
-        <f>(SUM(AN163:AW163)+SUM(B164:AM164))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ164" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY164, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA164" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY164, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB164" s="3"/>
     </row>
     <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43033</v>
       </c>
       <c r="AX165" s="5">
@@ -7617,22 +7560,22 @@
         <v>0</v>
       </c>
       <c r="AY165" s="5">
-        <f>(SUM(AN164:AW164)+SUM(B165:AM165))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ165" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY165, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA165" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY165, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB165" s="3"/>
     </row>
     <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43034</v>
       </c>
       <c r="AX166" s="5">
@@ -7640,22 +7583,22 @@
         <v>0</v>
       </c>
       <c r="AY166" s="5">
-        <f>(SUM(AN165:AW165)+SUM(B166:AM166))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ166" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY166, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA166" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY166, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB166" s="3"/>
     </row>
     <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43035</v>
       </c>
       <c r="AX167" s="5">
@@ -7663,22 +7606,22 @@
         <v>0</v>
       </c>
       <c r="AY167" s="5">
-        <f>(SUM(AN166:AW166)+SUM(B167:AM167))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ167" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY167, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA167" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY167, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB167" s="3"/>
     </row>
     <row r="168" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43036</v>
       </c>
       <c r="AS168" s="6"/>
@@ -7691,22 +7634,22 @@
         <v>0</v>
       </c>
       <c r="AY168" s="5">
-        <f>(SUM(AN167:AW167)+SUM(B168:AM168))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ168" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY168, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA168" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY168, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB168" s="3"/>
     </row>
     <row r="169" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43037</v>
       </c>
       <c r="AX169" s="5">
@@ -7714,22 +7657,22 @@
         <v>0</v>
       </c>
       <c r="AY169" s="5">
-        <f>(SUM(AN168:AW168)+SUM(B169:AM169))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ169" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY169, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA169" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY169, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB169" s="3"/>
     </row>
     <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43038</v>
       </c>
       <c r="AX170" s="5">
@@ -7737,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="AY170" s="5">
-        <f>(SUM(AN169:AW169)+SUM(B170:AM170))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ170" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY170, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA170" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY170, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB170" s="3"/>
     </row>
     <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43039</v>
       </c>
       <c r="AX171" s="5">
@@ -7760,22 +7703,22 @@
         <v>0</v>
       </c>
       <c r="AY171" s="5">
-        <f>(SUM(AN170:AW170)+SUM(B171:AM171))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ171" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY171, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA171" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY171, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB171" s="3"/>
     </row>
     <row r="172" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43040</v>
       </c>
       <c r="AX172" s="5">
@@ -7783,22 +7726,22 @@
         <v>0</v>
       </c>
       <c r="AY172" s="5">
-        <f>(SUM(AN171:AW171)+SUM(B172:AM172))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ172" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY172, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA172" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY172, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB172" s="3"/>
     </row>
     <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43041</v>
       </c>
       <c r="AX173" s="5">
@@ -7806,22 +7749,22 @@
         <v>0</v>
       </c>
       <c r="AY173" s="5">
-        <f>(SUM(AN172:AW172)+SUM(B173:AM173))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ173" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY173, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA173" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY173, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB173" s="3"/>
     </row>
     <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43042</v>
       </c>
       <c r="AX174" s="5">
@@ -7829,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="AY174" s="5">
-        <f>(SUM(AN173:AW173)+SUM(B174:AM174))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ174" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY174, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA174" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY174, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB174" s="3"/>
     </row>
     <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43043</v>
       </c>
       <c r="AP175" s="6"/>
@@ -7860,22 +7803,22 @@
         <v>0</v>
       </c>
       <c r="AY175" s="5">
-        <f>(SUM(AN174:AW174)+SUM(B175:AM175))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ175" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY175, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA175" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY175, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB175" s="3"/>
     </row>
     <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43044</v>
       </c>
       <c r="AX176" s="5">
@@ -7883,22 +7826,22 @@
         <v>0</v>
       </c>
       <c r="AY176" s="5">
-        <f>(SUM(AN175:AW175)+SUM(B176:AM176))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ176" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY176, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA176" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY176, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB176" s="3"/>
     </row>
     <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43045</v>
       </c>
       <c r="AX177" s="5">
@@ -7906,22 +7849,22 @@
         <v>0</v>
       </c>
       <c r="AY177" s="5">
-        <f>(SUM(AN176:AW176)+SUM(B177:AM177))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ177" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY177, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA177" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY177, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB177" s="3"/>
     </row>
     <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43046</v>
       </c>
       <c r="AX178" s="5">
@@ -7929,22 +7872,22 @@
         <v>0</v>
       </c>
       <c r="AY178" s="5">
-        <f>(SUM(AN177:AW177)+SUM(B178:AM178))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ178" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY178, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA178" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY178, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB178" s="3"/>
     </row>
     <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43047</v>
       </c>
       <c r="AR179" s="6"/>
@@ -7958,22 +7901,22 @@
         <v>0</v>
       </c>
       <c r="AY179" s="5">
-        <f>(SUM(AN178:AW178)+SUM(B179:AM179))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ179" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY179, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA179" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY179, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB179" s="3"/>
     </row>
     <row r="180" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43048</v>
       </c>
       <c r="AX180" s="5">
@@ -7981,22 +7924,22 @@
         <v>0</v>
       </c>
       <c r="AY180" s="5">
-        <f>(SUM(AN179:AW179)+SUM(B180:AM180))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ180" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY180, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA180" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY180, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB180" s="3"/>
     </row>
     <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43049</v>
       </c>
       <c r="AX181" s="5">
@@ -8004,22 +7947,22 @@
         <v>0</v>
       </c>
       <c r="AY181" s="5">
-        <f>(SUM(AN180:AW180)+SUM(B181:AM181))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ181" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY181, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA181" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY181, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB181" s="3"/>
     </row>
     <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43050</v>
       </c>
       <c r="AX182" s="5">
@@ -8027,22 +7970,22 @@
         <v>0</v>
       </c>
       <c r="AY182" s="5">
-        <f>(SUM(AN181:AW181)+SUM(B182:AM182))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ182" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY182, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA182" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY182, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB182" s="3"/>
     </row>
     <row r="183" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43051</v>
       </c>
       <c r="AX183" s="5">
@@ -8050,22 +7993,22 @@
         <v>0</v>
       </c>
       <c r="AY183" s="5">
-        <f>(SUM(AN182:AW182)+SUM(B183:AM183))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ183" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY183, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA183" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY183, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB183" s="3"/>
     </row>
     <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43052</v>
       </c>
       <c r="AX184" s="5">
@@ -8073,22 +8016,22 @@
         <v>0</v>
       </c>
       <c r="AY184" s="5">
-        <f>(SUM(AN183:AW183)+SUM(B184:AM184))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ184" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY184, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA184" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY184, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB184" s="3"/>
     </row>
     <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43053</v>
       </c>
       <c r="AX185" s="5">
@@ -8096,22 +8039,22 @@
         <v>0</v>
       </c>
       <c r="AY185" s="5">
-        <f>(SUM(AN184:AW184)+SUM(B185:AM185))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ185" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY185, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA185" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY185, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB185" s="3"/>
     </row>
     <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43054</v>
       </c>
       <c r="AX186" s="5">
@@ -8119,22 +8062,22 @@
         <v>0</v>
       </c>
       <c r="AY186" s="5">
-        <f>(SUM(AN185:AW185)+SUM(B186:AM186))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ186" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY186, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA186" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY186, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB186" s="3"/>
     </row>
     <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43055</v>
       </c>
       <c r="AX187" s="5">
@@ -8142,22 +8085,22 @@
         <v>0</v>
       </c>
       <c r="AY187" s="5">
-        <f>(SUM(AN186:AW186)+SUM(B187:AM187))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ187" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY187, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA187" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY187, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB187" s="3"/>
     </row>
     <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43056</v>
       </c>
       <c r="AX188" s="5">
@@ -8165,22 +8108,22 @@
         <v>0</v>
       </c>
       <c r="AY188" s="5">
-        <f>(SUM(AN187:AW187)+SUM(B188:AM188))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ188" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY188, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA188" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY188, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB188" s="3"/>
     </row>
     <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43057</v>
       </c>
       <c r="AX189" s="5">
@@ -8188,22 +8131,22 @@
         <v>0</v>
       </c>
       <c r="AY189" s="5">
-        <f>(SUM(AN188:AW188)+SUM(B189:AM189))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ189" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY189, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA189" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY189, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB189" s="3"/>
     </row>
     <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43058</v>
       </c>
       <c r="AX190" s="5">
@@ -8211,22 +8154,22 @@
         <v>0</v>
       </c>
       <c r="AY190" s="5">
-        <f>(SUM(AN189:AW189)+SUM(B190:AM190))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ190" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY190, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA190" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY190, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB190" s="3"/>
     </row>
     <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43059</v>
       </c>
       <c r="AX191" s="5">
@@ -8234,22 +8177,22 @@
         <v>0</v>
       </c>
       <c r="AY191" s="5">
-        <f>(SUM(AN190:AW190)+SUM(B191:AM191))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ191" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY191, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA191" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY191, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB191" s="3"/>
     </row>
     <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43060</v>
       </c>
       <c r="AX192" s="5">
@@ -8257,22 +8200,22 @@
         <v>0</v>
       </c>
       <c r="AY192" s="5">
-        <f>(SUM(AN191:AW191)+SUM(B192:AM192))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ192" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY192, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA192" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY192, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB192" s="3"/>
     </row>
     <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43061</v>
       </c>
       <c r="AX193" s="5">
@@ -8280,22 +8223,22 @@
         <v>0</v>
       </c>
       <c r="AY193" s="5">
-        <f>(SUM(AN192:AW192)+SUM(B193:AM193))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ193" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY193, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="BA193" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY193, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="BB193" s="3"/>
     </row>
     <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43062</v>
       </c>
       <c r="AX194" s="5">
@@ -8303,22 +8246,22 @@
         <v>0</v>
       </c>
       <c r="AY194" s="5">
-        <f>(SUM(AN193:AW193)+SUM(B194:AM194))/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ194" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY194, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ref="AZ194:AZ257" ca="1" si="12">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY194, 0, 0, -$BC$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BA194" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY194, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ref="BA194:BA257" ca="1" si="13">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY194, 0, 0, -$BD$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BB194" s="3"/>
     </row>
     <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>43063</v>
       </c>
       <c r="AX195" s="5">
@@ -8326,22 +8269,22 @@
         <v>0</v>
       </c>
       <c r="AY195" s="5">
-        <f>(SUM(AN194:AW194)+SUM(B195:AM195))/2</f>
+        <f t="shared" ref="AY195:AY258" si="14">(SUM(AN194:AW194)+SUM(B195:AM195))/2</f>
         <v>0</v>
       </c>
       <c r="AZ195" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY195, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA195" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY195, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB195" s="3"/>
     </row>
     <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
-        <f t="shared" ref="A196:A259" si="3">A195+1</f>
+        <f t="shared" ref="A196:A259" si="15">A195+1</f>
         <v>43064</v>
       </c>
       <c r="AX196" s="5">
@@ -8349,22 +8292,22 @@
         <v>0</v>
       </c>
       <c r="AY196" s="5">
-        <f>(SUM(AN195:AW195)+SUM(B196:AM196))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ196" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY196, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA196" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY196, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB196" s="3"/>
     </row>
     <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43065</v>
       </c>
       <c r="AX197" s="5">
@@ -8372,22 +8315,22 @@
         <v>0</v>
       </c>
       <c r="AY197" s="5">
-        <f>(SUM(AN196:AW196)+SUM(B197:AM197))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ197" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY197, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA197" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY197, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB197" s="3"/>
     </row>
     <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43066</v>
       </c>
       <c r="AX198" s="5">
@@ -8395,22 +8338,22 @@
         <v>0</v>
       </c>
       <c r="AY198" s="5">
-        <f>(SUM(AN197:AW197)+SUM(B198:AM198))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ198" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY198, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA198" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY198, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB198" s="3"/>
     </row>
     <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43067</v>
       </c>
       <c r="AX199" s="5">
@@ -8418,22 +8361,22 @@
         <v>0</v>
       </c>
       <c r="AY199" s="5">
-        <f>(SUM(AN198:AW198)+SUM(B199:AM199))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ199" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY199, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA199" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY199, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB199" s="3"/>
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43068</v>
       </c>
       <c r="AX200" s="5">
@@ -8441,22 +8384,22 @@
         <v>0</v>
       </c>
       <c r="AY200" s="5">
-        <f>(SUM(AN199:AW199)+SUM(B200:AM200))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ200" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY200, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA200" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY200, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB200" s="3"/>
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43069</v>
       </c>
       <c r="AX201" s="5">
@@ -8464,22 +8407,22 @@
         <v>0</v>
       </c>
       <c r="AY201" s="5">
-        <f>(SUM(AN200:AW200)+SUM(B201:AM201))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ201" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY201, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA201" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY201, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB201" s="3"/>
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43070</v>
       </c>
       <c r="AX202" s="5">
@@ -8487,22 +8430,22 @@
         <v>0</v>
       </c>
       <c r="AY202" s="5">
-        <f>(SUM(AN201:AW201)+SUM(B202:AM202))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ202" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY202, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA202" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY202, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB202" s="3"/>
     </row>
     <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43071</v>
       </c>
       <c r="AX203" s="5">
@@ -8510,22 +8453,22 @@
         <v>0</v>
       </c>
       <c r="AY203" s="5">
-        <f>(SUM(AN202:AW202)+SUM(B203:AM203))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ203" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY203, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA203" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY203, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB203" s="3"/>
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43072</v>
       </c>
       <c r="AX204" s="5">
@@ -8533,22 +8476,22 @@
         <v>0</v>
       </c>
       <c r="AY204" s="5">
-        <f>(SUM(AN203:AW203)+SUM(B204:AM204))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ204" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY204, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA204" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY204, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB204" s="3"/>
     </row>
     <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43073</v>
       </c>
       <c r="AX205" s="5">
@@ -8556,22 +8499,22 @@
         <v>0</v>
       </c>
       <c r="AY205" s="5">
-        <f>(SUM(AN204:AW204)+SUM(B205:AM205))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ205" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY205, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA205" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY205, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="BB205" s="3"/>
     </row>
     <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43074</v>
       </c>
       <c r="AX206" s="5">
@@ -8579,21 +8522,21 @@
         <v>0</v>
       </c>
       <c r="AY206" s="5">
-        <f>(SUM(AN205:AW205)+SUM(B206:AM206))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ206" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY206, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA206" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY206, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43075</v>
       </c>
       <c r="AX207" s="5">
@@ -8601,21 +8544,21 @@
         <v>0</v>
       </c>
       <c r="AY207" s="5">
-        <f>(SUM(AN206:AW206)+SUM(B207:AM207))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ207" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY207, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA207" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY207, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43076</v>
       </c>
       <c r="AX208" s="5">
@@ -8623,21 +8566,21 @@
         <v>0</v>
       </c>
       <c r="AY208" s="5">
-        <f>(SUM(AN207:AW207)+SUM(B208:AM208))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ208" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY208, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA208" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY208, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43077</v>
       </c>
       <c r="AX209" s="5">
@@ -8645,21 +8588,21 @@
         <v>0</v>
       </c>
       <c r="AY209" s="5">
-        <f>(SUM(AN208:AW208)+SUM(B209:AM209))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ209" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY209, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA209" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY209, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43078</v>
       </c>
       <c r="AX210" s="5">
@@ -8667,21 +8610,21 @@
         <v>0</v>
       </c>
       <c r="AY210" s="5">
-        <f>(SUM(AN209:AW209)+SUM(B210:AM210))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ210" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY210, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA210" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY210, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43079</v>
       </c>
       <c r="AX211" s="5">
@@ -8689,21 +8632,21 @@
         <v>0</v>
       </c>
       <c r="AY211" s="5">
-        <f>(SUM(AN210:AW210)+SUM(B211:AM211))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ211" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY211, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA211" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY211, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43080</v>
       </c>
       <c r="AX212" s="5">
@@ -8711,21 +8654,21 @@
         <v>0</v>
       </c>
       <c r="AY212" s="5">
-        <f>(SUM(AN211:AW211)+SUM(B212:AM212))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ212" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY212, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA212" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY212, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43081</v>
       </c>
       <c r="AX213" s="5">
@@ -8733,21 +8676,21 @@
         <v>0</v>
       </c>
       <c r="AY213" s="5">
-        <f>(SUM(AN212:AW212)+SUM(B213:AM213))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ213" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY213, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA213" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY213, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43082</v>
       </c>
       <c r="AX214" s="5">
@@ -8755,21 +8698,21 @@
         <v>0</v>
       </c>
       <c r="AY214" s="5">
-        <f>(SUM(AN213:AW213)+SUM(B214:AM214))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ214" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY214, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA214" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY214, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43083</v>
       </c>
       <c r="AX215" s="5">
@@ -8777,21 +8720,21 @@
         <v>0</v>
       </c>
       <c r="AY215" s="5">
-        <f>(SUM(AN214:AW214)+SUM(B215:AM215))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ215" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY215, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA215" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY215, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43084</v>
       </c>
       <c r="AX216" s="5">
@@ -8799,21 +8742,21 @@
         <v>0</v>
       </c>
       <c r="AY216" s="5">
-        <f>(SUM(AN215:AW215)+SUM(B216:AM216))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ216" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY216, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA216" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY216, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43085</v>
       </c>
       <c r="AX217" s="5">
@@ -8821,21 +8764,21 @@
         <v>0</v>
       </c>
       <c r="AY217" s="5">
-        <f>(SUM(AN216:AW216)+SUM(B217:AM217))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ217" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY217, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA217" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY217, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A218" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43086</v>
       </c>
       <c r="AX218" s="5">
@@ -8843,21 +8786,21 @@
         <v>0</v>
       </c>
       <c r="AY218" s="5">
-        <f>(SUM(AN217:AW217)+SUM(B218:AM218))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ218" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY218, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA218" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY218, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A219" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43087</v>
       </c>
       <c r="AX219" s="5">
@@ -8865,21 +8808,21 @@
         <v>0</v>
       </c>
       <c r="AY219" s="5">
-        <f>(SUM(AN218:AW218)+SUM(B219:AM219))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ219" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY219, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA219" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY219, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43088</v>
       </c>
       <c r="AX220" s="5">
@@ -8887,21 +8830,21 @@
         <v>0</v>
       </c>
       <c r="AY220" s="5">
-        <f>(SUM(AN219:AW219)+SUM(B220:AM220))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ220" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY220, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA220" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY220, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43089</v>
       </c>
       <c r="AX221" s="5">
@@ -8909,21 +8852,21 @@
         <v>0</v>
       </c>
       <c r="AY221" s="5">
-        <f>(SUM(AN220:AW220)+SUM(B221:AM221))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ221" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY221, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA221" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY221, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43090</v>
       </c>
       <c r="AX222" s="5">
@@ -8931,21 +8874,21 @@
         <v>0</v>
       </c>
       <c r="AY222" s="5">
-        <f>(SUM(AN221:AW221)+SUM(B222:AM222))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ222" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY222, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA222" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY222, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43091</v>
       </c>
       <c r="AX223" s="5">
@@ -8953,21 +8896,21 @@
         <v>0</v>
       </c>
       <c r="AY223" s="5">
-        <f>(SUM(AN222:AW222)+SUM(B223:AM223))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ223" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY223, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA223" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY223, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43092</v>
       </c>
       <c r="AX224" s="5">
@@ -8975,21 +8918,21 @@
         <v>0</v>
       </c>
       <c r="AY224" s="5">
-        <f>(SUM(AN223:AW223)+SUM(B224:AM224))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ224" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY224, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA224" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY224, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43093</v>
       </c>
       <c r="AX225" s="5">
@@ -8997,21 +8940,21 @@
         <v>0</v>
       </c>
       <c r="AY225" s="5">
-        <f>(SUM(AN224:AW224)+SUM(B225:AM225))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ225" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY225, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA225" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY225, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43094</v>
       </c>
       <c r="AX226" s="5">
@@ -9019,21 +8962,21 @@
         <v>0</v>
       </c>
       <c r="AY226" s="5">
-        <f>(SUM(AN225:AW225)+SUM(B226:AM226))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ226" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY226, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA226" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY226, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43095</v>
       </c>
       <c r="AX227" s="5">
@@ -9041,21 +8984,21 @@
         <v>0</v>
       </c>
       <c r="AY227" s="5">
-        <f>(SUM(AN226:AW226)+SUM(B227:AM227))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ227" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY227, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA227" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY227, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43096</v>
       </c>
       <c r="AX228" s="5">
@@ -9063,21 +9006,21 @@
         <v>0</v>
       </c>
       <c r="AY228" s="5">
-        <f>(SUM(AN227:AW227)+SUM(B228:AM228))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ228" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY228, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA228" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY228, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43097</v>
       </c>
       <c r="AX229" s="5">
@@ -9085,21 +9028,21 @@
         <v>0</v>
       </c>
       <c r="AY229" s="5">
-        <f>(SUM(AN228:AW228)+SUM(B229:AM229))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ229" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY229, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA229" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY229, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43098</v>
       </c>
       <c r="AX230" s="5">
@@ -9107,21 +9050,21 @@
         <v>0</v>
       </c>
       <c r="AY230" s="5">
-        <f>(SUM(AN229:AW229)+SUM(B230:AM230))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ230" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY230, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA230" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY230, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43099</v>
       </c>
       <c r="AX231" s="5">
@@ -9129,21 +9072,21 @@
         <v>0</v>
       </c>
       <c r="AY231" s="5">
-        <f>(SUM(AN230:AW230)+SUM(B231:AM231))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ231" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY231, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA231" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY231, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43100</v>
       </c>
       <c r="AX232" s="5">
@@ -9151,21 +9094,21 @@
         <v>0</v>
       </c>
       <c r="AY232" s="5">
-        <f>(SUM(AN231:AW231)+SUM(B232:AM232))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ232" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY232, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA232" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY232, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43101</v>
       </c>
       <c r="AX233" s="5">
@@ -9173,21 +9116,21 @@
         <v>0</v>
       </c>
       <c r="AY233" s="5">
-        <f>(SUM(AN232:AW232)+SUM(B233:AM233))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ233" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY233, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA233" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY233, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43102</v>
       </c>
       <c r="AX234" s="5">
@@ -9195,21 +9138,21 @@
         <v>0</v>
       </c>
       <c r="AY234" s="5">
-        <f>(SUM(AN233:AW233)+SUM(B234:AM234))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ234" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY234, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA234" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY234, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43103</v>
       </c>
       <c r="AX235" s="5">
@@ -9217,21 +9160,21 @@
         <v>0</v>
       </c>
       <c r="AY235" s="5">
-        <f>(SUM(AN234:AW234)+SUM(B235:AM235))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ235" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY235, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA235" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY235, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43104</v>
       </c>
       <c r="AX236" s="5">
@@ -9239,21 +9182,21 @@
         <v>0</v>
       </c>
       <c r="AY236" s="5">
-        <f>(SUM(AN235:AW235)+SUM(B236:AM236))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ236" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY236, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA236" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY236, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43105</v>
       </c>
       <c r="AX237" s="5">
@@ -9261,21 +9204,21 @@
         <v>0</v>
       </c>
       <c r="AY237" s="5">
-        <f>(SUM(AN236:AW236)+SUM(B237:AM237))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ237" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY237, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA237" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY237, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43106</v>
       </c>
       <c r="AX238" s="5">
@@ -9283,21 +9226,21 @@
         <v>0</v>
       </c>
       <c r="AY238" s="5">
-        <f>(SUM(AN237:AW237)+SUM(B238:AM238))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ238" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY238, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA238" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY238, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A239" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43107</v>
       </c>
       <c r="AX239" s="5">
@@ -9305,21 +9248,21 @@
         <v>0</v>
       </c>
       <c r="AY239" s="5">
-        <f>(SUM(AN238:AW238)+SUM(B239:AM239))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ239" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY239, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA239" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY239, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43108</v>
       </c>
       <c r="AX240" s="5">
@@ -9327,21 +9270,21 @@
         <v>0</v>
       </c>
       <c r="AY240" s="5">
-        <f>(SUM(AN239:AW239)+SUM(B240:AM240))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ240" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY240, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA240" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY240, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43109</v>
       </c>
       <c r="AX241" s="5">
@@ -9349,21 +9292,21 @@
         <v>0</v>
       </c>
       <c r="AY241" s="5">
-        <f>(SUM(AN240:AW240)+SUM(B241:AM241))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ241" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY241, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA241" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY241, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43110</v>
       </c>
       <c r="AX242" s="5">
@@ -9371,21 +9314,21 @@
         <v>0</v>
       </c>
       <c r="AY242" s="5">
-        <f>(SUM(AN241:AW241)+SUM(B242:AM242))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ242" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY242, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA242" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY242, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43111</v>
       </c>
       <c r="AX243" s="5">
@@ -9393,21 +9336,21 @@
         <v>0</v>
       </c>
       <c r="AY243" s="5">
-        <f>(SUM(AN242:AW242)+SUM(B243:AM243))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ243" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY243, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA243" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY243, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43112</v>
       </c>
       <c r="AX244" s="5">
@@ -9415,21 +9358,21 @@
         <v>0</v>
       </c>
       <c r="AY244" s="5">
-        <f>(SUM(AN243:AW243)+SUM(B244:AM244))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ244" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY244, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA244" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY244, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43113</v>
       </c>
       <c r="AX245" s="5">
@@ -9437,21 +9380,21 @@
         <v>0</v>
       </c>
       <c r="AY245" s="5">
-        <f>(SUM(AN244:AW244)+SUM(B245:AM245))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ245" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY245, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA245" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY245, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43114</v>
       </c>
       <c r="AX246" s="5">
@@ -9459,21 +9402,21 @@
         <v>0</v>
       </c>
       <c r="AY246" s="5">
-        <f>(SUM(AN245:AW245)+SUM(B246:AM246))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ246" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY246, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA246" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY246, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43115</v>
       </c>
       <c r="AX247" s="5">
@@ -9481,21 +9424,21 @@
         <v>0</v>
       </c>
       <c r="AY247" s="5">
-        <f>(SUM(AN246:AW246)+SUM(B247:AM247))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ247" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY247, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA247" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY247, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43116</v>
       </c>
       <c r="AX248" s="5">
@@ -9503,21 +9446,21 @@
         <v>0</v>
       </c>
       <c r="AY248" s="5">
-        <f>(SUM(AN247:AW247)+SUM(B248:AM248))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ248" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY248, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA248" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY248, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43117</v>
       </c>
       <c r="AX249" s="5">
@@ -9525,21 +9468,21 @@
         <v>0</v>
       </c>
       <c r="AY249" s="5">
-        <f>(SUM(AN248:AW248)+SUM(B249:AM249))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ249" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY249, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA249" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY249, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43118</v>
       </c>
       <c r="AX250" s="5">
@@ -9547,21 +9490,21 @@
         <v>0</v>
       </c>
       <c r="AY250" s="5">
-        <f>(SUM(AN249:AW249)+SUM(B250:AM250))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ250" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY250, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA250" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY250, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43119</v>
       </c>
       <c r="AX251" s="5">
@@ -9569,21 +9512,21 @@
         <v>0</v>
       </c>
       <c r="AY251" s="5">
-        <f>(SUM(AN250:AW250)+SUM(B251:AM251))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ251" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY251, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA251" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY251, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43120</v>
       </c>
       <c r="AX252" s="5">
@@ -9591,21 +9534,21 @@
         <v>0</v>
       </c>
       <c r="AY252" s="5">
-        <f>(SUM(AN251:AW251)+SUM(B252:AM252))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ252" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY252, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA252" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY252, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43121</v>
       </c>
       <c r="AX253" s="5">
@@ -9613,21 +9556,21 @@
         <v>0</v>
       </c>
       <c r="AY253" s="5">
-        <f>(SUM(AN252:AW252)+SUM(B253:AM253))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ253" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY253, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA253" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY253, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43122</v>
       </c>
       <c r="AX254" s="5">
@@ -9635,21 +9578,21 @@
         <v>0</v>
       </c>
       <c r="AY254" s="5">
-        <f>(SUM(AN253:AW253)+SUM(B254:AM254))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ254" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY254, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA254" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY254, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43123</v>
       </c>
       <c r="AX255" s="5">
@@ -9657,21 +9600,21 @@
         <v>0</v>
       </c>
       <c r="AY255" s="5">
-        <f>(SUM(AN254:AW254)+SUM(B255:AM255))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ255" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY255, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA255" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY255, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43124</v>
       </c>
       <c r="AX256" s="5">
@@ -9679,21 +9622,21 @@
         <v>0</v>
       </c>
       <c r="AY256" s="5">
-        <f>(SUM(AN255:AW255)+SUM(B256:AM256))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ256" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY256, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA256" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY256, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43125</v>
       </c>
       <c r="AX257" s="5">
@@ -9701,21 +9644,21 @@
         <v>0</v>
       </c>
       <c r="AY257" s="5">
-        <f>(SUM(AN256:AW256)+SUM(B257:AM257))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ257" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY257, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="BA257" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY257, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43126</v>
       </c>
       <c r="AX258" s="5">
@@ -9723,21 +9666,21 @@
         <v>0</v>
       </c>
       <c r="AY258" s="5">
-        <f>(SUM(AN257:AW257)+SUM(B258:AM258))/2</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ258" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY258, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ref="AZ258:AZ321" ca="1" si="16">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY258, 0, 0, -$BC$1)), NA())</f>
         <v>0</v>
       </c>
       <c r="BA258" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY258, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ref="BA258:BA295" ca="1" si="17">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY258, 0, 0, -$BD$1)), NA())</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>43127</v>
       </c>
       <c r="AX259" s="5">
@@ -9745,21 +9688,21 @@
         <v>0</v>
       </c>
       <c r="AY259" s="5">
-        <f>(SUM(AN258:AW258)+SUM(B259:AM259))/2</f>
+        <f t="shared" ref="AY259:AY295" si="18">(SUM(AN258:AW258)+SUM(B259:AM259))/2</f>
         <v>0</v>
       </c>
       <c r="AZ259" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY259, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA259" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY259, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
-        <f t="shared" ref="A260:A295" si="4">A259+1</f>
+        <f t="shared" ref="A260:A295" si="19">A259+1</f>
         <v>43128</v>
       </c>
       <c r="AX260" s="5">
@@ -9767,21 +9710,21 @@
         <v>0</v>
       </c>
       <c r="AY260" s="5">
-        <f>(SUM(AN259:AW259)+SUM(B260:AM260))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ260" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY260, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA260" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY260, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43129</v>
       </c>
       <c r="AX261" s="5">
@@ -9789,21 +9732,21 @@
         <v>0</v>
       </c>
       <c r="AY261" s="5">
-        <f>(SUM(AN260:AW260)+SUM(B261:AM261))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ261" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY261, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA261" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY261, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43130</v>
       </c>
       <c r="AX262" s="5">
@@ -9811,21 +9754,21 @@
         <v>0</v>
       </c>
       <c r="AY262" s="5">
-        <f>(SUM(AN261:AW261)+SUM(B262:AM262))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ262" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY262, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA262" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY262, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A263" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43131</v>
       </c>
       <c r="AX263" s="5">
@@ -9833,21 +9776,21 @@
         <v>0</v>
       </c>
       <c r="AY263" s="5">
-        <f>(SUM(AN262:AW262)+SUM(B263:AM263))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ263" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY263, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA263" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY263, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43132</v>
       </c>
       <c r="AX264" s="5">
@@ -9855,21 +9798,21 @@
         <v>0</v>
       </c>
       <c r="AY264" s="5">
-        <f>(SUM(AN263:AW263)+SUM(B264:AM264))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ264" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY264, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA264" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY264, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43133</v>
       </c>
       <c r="AX265" s="5">
@@ -9877,21 +9820,21 @@
         <v>0</v>
       </c>
       <c r="AY265" s="5">
-        <f>(SUM(AN264:AW264)+SUM(B265:AM265))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ265" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY265, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA265" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY265, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43134</v>
       </c>
       <c r="AX266" s="5">
@@ -9899,21 +9842,21 @@
         <v>0</v>
       </c>
       <c r="AY266" s="5">
-        <f>(SUM(AN265:AW265)+SUM(B266:AM266))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ266" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY266, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA266" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY266, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43135</v>
       </c>
       <c r="AX267" s="5">
@@ -9921,21 +9864,21 @@
         <v>0</v>
       </c>
       <c r="AY267" s="5">
-        <f>(SUM(AN266:AW266)+SUM(B267:AM267))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ267" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY267, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA267" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY267, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43136</v>
       </c>
       <c r="AX268" s="5">
@@ -9943,21 +9886,21 @@
         <v>0</v>
       </c>
       <c r="AY268" s="5">
-        <f>(SUM(AN267:AW267)+SUM(B268:AM268))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ268" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY268, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA268" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY268, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43137</v>
       </c>
       <c r="AX269" s="5">
@@ -9965,21 +9908,21 @@
         <v>0</v>
       </c>
       <c r="AY269" s="5">
-        <f>(SUM(AN268:AW268)+SUM(B269:AM269))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ269" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY269, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA269" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY269, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43138</v>
       </c>
       <c r="AX270" s="5">
@@ -9987,21 +9930,21 @@
         <v>0</v>
       </c>
       <c r="AY270" s="5">
-        <f>(SUM(AN269:AW269)+SUM(B270:AM270))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ270" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY270, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA270" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY270, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43139</v>
       </c>
       <c r="AX271" s="5">
@@ -10009,21 +9952,21 @@
         <v>0</v>
       </c>
       <c r="AY271" s="5">
-        <f>(SUM(AN270:AW270)+SUM(B271:AM271))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ271" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY271, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA271" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY271, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A272" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43140</v>
       </c>
       <c r="AX272" s="5">
@@ -10031,21 +9974,21 @@
         <v>0</v>
       </c>
       <c r="AY272" s="5">
-        <f>(SUM(AN271:AW271)+SUM(B272:AM272))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ272" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY272, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA272" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY272, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A273" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43141</v>
       </c>
       <c r="AX273" s="5">
@@ -10053,21 +9996,21 @@
         <v>0</v>
       </c>
       <c r="AY273" s="5">
-        <f>(SUM(AN272:AW272)+SUM(B273:AM273))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ273" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY273, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA273" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY273, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43142</v>
       </c>
       <c r="AX274" s="5">
@@ -10075,21 +10018,21 @@
         <v>0</v>
       </c>
       <c r="AY274" s="5">
-        <f>(SUM(AN273:AW273)+SUM(B274:AM274))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ274" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY274, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA274" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY274, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A275" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43143</v>
       </c>
       <c r="AX275" s="5">
@@ -10097,21 +10040,21 @@
         <v>0</v>
       </c>
       <c r="AY275" s="5">
-        <f>(SUM(AN274:AW274)+SUM(B275:AM275))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ275" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY275, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA275" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY275, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43144</v>
       </c>
       <c r="AX276" s="5">
@@ -10119,21 +10062,21 @@
         <v>0</v>
       </c>
       <c r="AY276" s="5">
-        <f>(SUM(AN275:AW275)+SUM(B276:AM276))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ276" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY276, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA276" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY276, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43145</v>
       </c>
       <c r="AX277" s="5">
@@ -10141,21 +10084,21 @@
         <v>0</v>
       </c>
       <c r="AY277" s="5">
-        <f>(SUM(AN276:AW276)+SUM(B277:AM277))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ277" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY277, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA277" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY277, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43146</v>
       </c>
       <c r="AX278" s="5">
@@ -10163,21 +10106,21 @@
         <v>0</v>
       </c>
       <c r="AY278" s="5">
-        <f>(SUM(AN277:AW277)+SUM(B278:AM278))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ278" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY278, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA278" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY278, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43147</v>
       </c>
       <c r="AX279" s="5">
@@ -10185,21 +10128,21 @@
         <v>0</v>
       </c>
       <c r="AY279" s="5">
-        <f>(SUM(AN278:AW278)+SUM(B279:AM279))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ279" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY279, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA279" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY279, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43148</v>
       </c>
       <c r="AX280" s="5">
@@ -10207,21 +10150,21 @@
         <v>0</v>
       </c>
       <c r="AY280" s="5">
-        <f>(SUM(AN279:AW279)+SUM(B280:AM280))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ280" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY280, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA280" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY280, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43149</v>
       </c>
       <c r="AX281" s="5">
@@ -10229,21 +10172,21 @@
         <v>0</v>
       </c>
       <c r="AY281" s="5">
-        <f>(SUM(AN280:AW280)+SUM(B281:AM281))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ281" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY281, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA281" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY281, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43150</v>
       </c>
       <c r="AX282" s="5">
@@ -10251,21 +10194,21 @@
         <v>0</v>
       </c>
       <c r="AY282" s="5">
-        <f>(SUM(AN281:AW281)+SUM(B282:AM282))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ282" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY282, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA282" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY282, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43151</v>
       </c>
       <c r="AX283" s="5">
@@ -10273,21 +10216,21 @@
         <v>0</v>
       </c>
       <c r="AY283" s="5">
-        <f>(SUM(AN282:AW282)+SUM(B283:AM283))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ283" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY283, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA283" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY283, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43152</v>
       </c>
       <c r="AX284" s="5">
@@ -10295,21 +10238,21 @@
         <v>0</v>
       </c>
       <c r="AY284" s="5">
-        <f>(SUM(AN283:AW283)+SUM(B284:AM284))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ284" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY284, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA284" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY284, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43153</v>
       </c>
       <c r="AX285" s="5">
@@ -10317,21 +10260,21 @@
         <v>0</v>
       </c>
       <c r="AY285" s="5">
-        <f>(SUM(AN284:AW284)+SUM(B285:AM285))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ285" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY285, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA285" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY285, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43154</v>
       </c>
       <c r="AX286" s="5">
@@ -10339,21 +10282,21 @@
         <v>0</v>
       </c>
       <c r="AY286" s="5">
-        <f>(SUM(AN285:AW285)+SUM(B286:AM286))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ286" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY286, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA286" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY286, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43155</v>
       </c>
       <c r="AX287" s="5">
@@ -10361,21 +10304,21 @@
         <v>0</v>
       </c>
       <c r="AY287" s="5">
-        <f>(SUM(AN286:AW286)+SUM(B287:AM287))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ287" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY287, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA287" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY287, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43156</v>
       </c>
       <c r="AX288" s="5">
@@ -10383,21 +10326,21 @@
         <v>0</v>
       </c>
       <c r="AY288" s="5">
-        <f>(SUM(AN287:AW287)+SUM(B288:AM288))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ288" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY288, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA288" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY288, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43157</v>
       </c>
       <c r="AX289" s="5">
@@ -10405,21 +10348,21 @@
         <v>0</v>
       </c>
       <c r="AY289" s="5">
-        <f>(SUM(AN288:AW288)+SUM(B289:AM289))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ289" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY289, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA289" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY289, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43158</v>
       </c>
       <c r="AX290" s="5">
@@ -10427,21 +10370,21 @@
         <v>0</v>
       </c>
       <c r="AY290" s="5">
-        <f>(SUM(AN289:AW289)+SUM(B290:AM290))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ290" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY290, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA290" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY290, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43159</v>
       </c>
       <c r="AX291" s="5">
@@ -10449,21 +10392,21 @@
         <v>0</v>
       </c>
       <c r="AY291" s="5">
-        <f>(SUM(AN290:AW290)+SUM(B291:AM291))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ291" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY291, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA291" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY291, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43160</v>
       </c>
       <c r="AX292" s="5">
@@ -10471,21 +10414,21 @@
         <v>0</v>
       </c>
       <c r="AY292" s="5">
-        <f>(SUM(AN291:AW291)+SUM(B292:AM292))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ292" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY292, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA292" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY292, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43161</v>
       </c>
       <c r="AX293" s="5">
@@ -10493,21 +10436,21 @@
         <v>0</v>
       </c>
       <c r="AY293" s="5">
-        <f>(SUM(AN292:AW292)+SUM(B293:AM293))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ293" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY293, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA293" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY293, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43162</v>
       </c>
       <c r="AX294" s="5">
@@ -10515,21 +10458,21 @@
         <v>0</v>
       </c>
       <c r="AY294" s="5">
-        <f>(SUM(AN293:AW293)+SUM(B294:AM294))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ294" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY294, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA294" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY294, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>43163</v>
       </c>
       <c r="AX295" s="5">
@@ -10537,15 +10480,15 @@
         <v>0</v>
       </c>
       <c r="AY295" s="5">
-        <f>(SUM(AN294:AW294)+SUM(B295:AM295))/2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ295" s="8">
-        <f ca="1">IF(MAX(-$BC$1, -(ROW() - 1)) = -$BC$1, AVERAGE(OFFSET(AY295, 0, 0, -$BC$1)), NA())</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BA295" s="8">
-        <f ca="1">IF(MAX(-$BD$1, -(ROW() - 1)) = -$BD$1, _xlfn.STDEV.P(OFFSET(AY295, 0, 0, -$BD$1)), NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10557,48 +10500,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AF6:AW6 B2:AW4 AA5:AW5 L6:Z6 B5:J6 L5:Y5 B7:AW31 AM56:AW56 F32:AW50 F52:AW55 F51:AM51 AR51:AW51 B52:E52 B56:E56 J56:AH56 B103:AJ103 AP103:AW103 B57:AW102 B104:AW295">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AW31 AM56:AW56 F32:AW50 F52:AW55 F51:AM51 AR51:AW51 B52:E52 B56:E56 J56:AH56 B103:AJ103 AP103:AW103 B57:AW102 B104:AW295">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ2:AZ123">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>MAX(-$BC$1, -(ROW() - 1)) &lt;&gt; -$BC$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BA123">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>MAX(-$BD$1, -(ROW() - 1)) &lt;&gt; -$BD$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:AX1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
